--- a/biology/Médecine/Association_de_lutte_contre_le_sida/Association_de_lutte_contre_le_sida.xlsx
+++ b/biology/Médecine/Association_de_lutte_contre_le_sida/Association_de_lutte_contre_le_sida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association de lutte contre le sida (ALCS) est une organisation non gouvernementale marocaine de lutte contre le VIH/sida. Elle fait partie des membres fondateurs de Coalition PLUS, réseau international d'ONG de lutte contre le sida et les hépatites virales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association de lutte contre le sida (ALCS) est une organisation non gouvernementale marocaine de lutte contre le VIH/sida. Elle fait partie des membres fondateurs de Coalition PLUS, réseau international d'ONG de lutte contre le sida et les hépatites virales.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1988, Hakima Himmich crée l'Association de Lutte contre le sida au Maroc, ALCS, première association de lutte contre le sida de la région Moyen Orient/Afrique du Nord[2].
-L'association est reconnue d'utilité publique par décret 473-93-2 du 16 juin 1993[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1988, Hakima Himmich crée l'Association de Lutte contre le sida au Maroc, ALCS, première association de lutte contre le sida de la région Moyen Orient/Afrique du Nord.
+L'association est reconnue d'utilité publique par décret 473-93-2 du 16 juin 1993.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,43 +610,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Les actions</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les actions régionales
-Les actions internationales
-Les actions de formation
-Les actions de restitution</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Association_de_lutte_contre_le_sida</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Association_de_lutte_contre_le_sida</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Les services d'aide à distance (téléphone et internet)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
